--- a/SchoolManagementApplication/resources/exportedteacher.xlsx
+++ b/SchoolManagementApplication/resources/exportedteacher.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CMND</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>nbk-vl</t>
-  </si>
-  <si>
-    <t>285656899</t>
-  </si>
-  <si>
-    <t>Le Cong Huy</t>
   </si>
   <si>
     <t>334442222</t>
@@ -95,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -136,18 +130,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SchoolManagementApplication/resources/exportedteacher.xlsx
+++ b/SchoolManagementApplication/resources/exportedteacher.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>CMND</t>
   </si>
@@ -21,24 +21,6 @@
   </si>
   <si>
     <t>Working School's ID</t>
-  </si>
-  <si>
-    <t>337829999</t>
-  </si>
-  <si>
-    <t>Tran Van Thanh</t>
-  </si>
-  <si>
-    <t>nbk-vl</t>
-  </si>
-  <si>
-    <t>334442222</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Tho</t>
-  </si>
-  <si>
-    <t>nbk-qn</t>
   </si>
 </sst>
 </file>
@@ -89,14 +71,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -111,28 +93,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SchoolManagementApplication/resources/exportedteacher.xlsx
+++ b/SchoolManagementApplication/resources/exportedteacher.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CMND</t>
   </si>
@@ -21,6 +21,24 @@
   </si>
   <si>
     <t>Working School's ID</t>
+  </si>
+  <si>
+    <t>337829999</t>
+  </si>
+  <si>
+    <t>Tran Van Thanh</t>
+  </si>
+  <si>
+    <t>nbk-vl</t>
+  </si>
+  <si>
+    <t>334442222</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Tho</t>
+  </si>
+  <si>
+    <t>nbk-qn</t>
   </si>
 </sst>
 </file>
@@ -71,14 +89,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -93,6 +111,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
